--- a/Homework_2/Caching.xlsx
+++ b/Homework_2/Caching.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="direct mapped cache" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>phys addr</t>
   </si>
@@ -33,22 +33,31 @@
     <t>cache block</t>
   </si>
   <si>
-    <t>Cache Block</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
-    <t>C0</t>
-  </si>
-  <si>
     <t>hit/miss</t>
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A (index)</t>
+  </si>
+  <si>
+    <t>phys addr (byte)</t>
+  </si>
+  <si>
+    <t>phys block (block)</t>
+  </si>
+  <si>
+    <t>cache block (block)</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -366,426 +375,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E77"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <f>64+D2</f>
+        <v>128</v>
+      </c>
+      <c r="F2">
+        <f>64+E2</f>
+        <v>192</v>
+      </c>
+      <c r="G2">
+        <f>64+F2</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
       <c r="C4">
+        <f>2711684608</f>
         <v>2711684608</v>
       </c>
       <c r="D4">
-        <v>2711750144</v>
+        <f>$C$4+(4*(D2))</f>
+        <v>2711684864</v>
       </c>
       <c r="E4">
-        <v>3165496832</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <f>$C$4+(4*(E2))</f>
+        <v>2711685120</v>
+      </c>
+      <c r="F4">
+        <f>$C$4+(4*(F2))</f>
+        <v>2711685376</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="F4:G4" si="0">$C$4+(4*(G2))</f>
+        <v>2711685632</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <f xml:space="preserve"> ROUNDDOWN(C4/2048,0)</f>
-        <v>1324064</v>
+        <f xml:space="preserve"> ROUNDDOWN(C4/(64*4),0)</f>
+        <v>10592518</v>
       </c>
       <c r="D5">
-        <f xml:space="preserve"> ROUNDDOWN(D4/2048,0)</f>
-        <v>1324096</v>
+        <f xml:space="preserve"> ROUNDDOWN(D4/(64*4),0)</f>
+        <v>10592519</v>
       </c>
       <c r="E5">
-        <f xml:space="preserve"> ROUNDDOWN(E4/2048,0)</f>
-        <v>1545652</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E5:G5" si="1" xml:space="preserve"> ROUNDDOWN(E4/(64*4),0)</f>
+        <v>10592520</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>10592521</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>10592522</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <f>MOD(C5,64)</f>
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f>MOD(D5,64)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <f>MOD(E5,64)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f>MOD(F5,64)</f>
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <f>MOD(G5,64)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <f>64+D9</f>
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:G9" si="2">64+E9</f>
+        <v>192</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>2711750144</f>
+        <v>2711750144</v>
+      </c>
+      <c r="D11">
+        <f>$C$11+(4*(D9))</f>
+        <v>2711750400</v>
+      </c>
+      <c r="E11">
+        <f>$C$11+(4*(E9))</f>
+        <v>2711750656</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:G11" si="3">$C$11+(4*(F9))</f>
+        <v>2711750912</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>2711751168</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f xml:space="preserve"> ROUNDDOWN(C11/(64*4),0)</f>
+        <v>10592774</v>
+      </c>
+      <c r="D12">
+        <f xml:space="preserve"> ROUNDDOWN(D11/(64*4),0)</f>
+        <v>10592775</v>
+      </c>
+      <c r="E12">
+        <f xml:space="preserve"> ROUNDDOWN(E11/(64*4),0)</f>
+        <v>10592776</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:G12" si="4" xml:space="preserve"> ROUNDDOWN(F11/(64*4),0)</f>
+        <v>10592777</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>10592778</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>MOD(C12,64)</f>
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <f>MOD(D12,64)</f>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f>MOD(E12,64)</f>
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:G13" si="5">MOD(F12,64)</f>
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <f>64+D16</f>
+        <v>128</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:G16" si="6">64+E16</f>
+        <v>192</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="D14">
-        <f xml:space="preserve"> ROUNDDOWN(D13/2048,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="C18">
+        <f>3165496832</f>
+        <v>3165496832</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:E18" si="7">$C$18+(4*(D16))</f>
+        <v>3165497088</v>
+      </c>
+      <c r="E18">
+        <f>$C$18+(4*(E16))</f>
+        <v>3165497344</v>
+      </c>
+      <c r="F18">
+        <f>$C$18+(4*(F16))</f>
+        <v>3165497600</v>
+      </c>
+      <c r="G18">
+        <f>$C$18+(4*(G16))</f>
+        <v>3165497856</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="C19">
+        <f xml:space="preserve"> ROUNDDOWN(C18/(64*4),0)</f>
+        <v>12365222</v>
+      </c>
+      <c r="D19">
+        <f xml:space="preserve"> ROUNDDOWN(D18/(64*4),0)</f>
+        <v>12365223</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:G19" si="8" xml:space="preserve"> ROUNDDOWN(E18/(64*4),0)</f>
+        <v>12365224</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="8"/>
+        <v>12365225</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="8"/>
+        <v>12365226</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>32</v>
-      </c>
-      <c r="C46">
-        <v>143420</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52">
+      <c r="C20">
+        <f>MOD(C19,64)</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53">
+      <c r="D20">
+        <f>MOD(D19,64)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54">
+      <c r="E20">
+        <f>MOD(E19,64)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55">
+      <c r="F20">
+        <f t="shared" ref="F20" si="9">MOD(F19,64)</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56">
+      <c r="G20">
+        <f t="shared" ref="G20" si="10">MOD(G19,64)</f>
         <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>52</v>
-      </c>
-      <c r="E66">
-        <v>1545652</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -796,12 +766,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <f>64+D2</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f>2711684608</f>
+        <v>2711684608</v>
+      </c>
+      <c r="D4">
+        <f>$C$4+(4*(D2))</f>
+        <v>2711684864</v>
+      </c>
+      <c r="E4">
+        <f>$C$4+(4*(E2))</f>
+        <v>2711685120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <f xml:space="preserve"> ROUNDDOWN(C4/(64*4),0)</f>
+        <v>10592518</v>
+      </c>
+      <c r="D5">
+        <f xml:space="preserve"> ROUNDDOWN(D4/(64*4),0)</f>
+        <v>10592519</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5" si="0" xml:space="preserve"> ROUNDDOWN(E4/(64*4),0)</f>
+        <v>10592520</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f>MOD(C5,64)</f>
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f>MOD(D5,64)</f>
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f>MOD(E5,64)</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Homework_2/Caching.xlsx
+++ b/Homework_2/Caching.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="direct mapped cache" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>phys addr</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because the cache is fully accosiative (meaning blocks can be placed anywhere) and big enough to fit more than three blocks each Array will only have 4 misses  </t>
+  </si>
+  <si>
+    <t>Set associative caching with 2 blocks per set</t>
+  </si>
+  <si>
+    <t>Cache Blocks</t>
+  </si>
+  <si>
+    <t>Blocks per set</t>
+  </si>
+  <si>
+    <t>Sets</t>
   </si>
 </sst>
 </file>
@@ -378,7 +393,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E6"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -462,7 +477,7 @@
         <v>2711685376</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="F4:G4" si="0">$C$4+(4*(G2))</f>
+        <f t="shared" ref="G4" si="0">$C$4+(4*(G2))</f>
         <v>2711685632</v>
       </c>
     </row>
@@ -559,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -692,7 +707,7 @@
         <v>3165496832</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:E18" si="7">$C$18+(4*(D16))</f>
+        <f t="shared" ref="D18" si="7">$C$18+(4*(D16))</f>
         <v>3165497088</v>
       </c>
       <c r="E18">
@@ -766,92 +781,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>64</v>
-      </c>
-      <c r="E2">
-        <f>64+D2</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <f>2711684608</f>
-        <v>2711684608</v>
-      </c>
-      <c r="D4">
-        <f>$C$4+(4*(D2))</f>
-        <v>2711684864</v>
-      </c>
-      <c r="E4">
-        <f>$C$4+(4*(E2))</f>
-        <v>2711685120</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <f xml:space="preserve"> ROUNDDOWN(C4/(64*4),0)</f>
-        <v>10592518</v>
-      </c>
-      <c r="D5">
-        <f xml:space="preserve"> ROUNDDOWN(D4/(64*4),0)</f>
-        <v>10592519</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5" si="0" xml:space="preserve"> ROUNDDOWN(E4/(64*4),0)</f>
-        <v>10592520</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <f>MOD(C5,64)</f>
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <f>MOD(D5,64)</f>
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <f>MOD(E5,64)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -861,12 +801,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>B5/C5</f>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Homework_2/Caching.xlsx
+++ b/Homework_2/Caching.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="direct mapped cache" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
   <si>
     <t>phys addr</t>
   </si>
@@ -73,6 +73,33 @@
   </si>
   <si>
     <t>Sets</t>
+  </si>
+  <si>
+    <t>cache Set (set)</t>
+  </si>
+  <si>
+    <t>cache Set block (block)</t>
+  </si>
+  <si>
+    <t>B (index)</t>
+  </si>
+  <si>
+    <t>256 misses</t>
+  </si>
+  <si>
+    <t>4 misses</t>
+  </si>
+  <si>
+    <t>252  hits</t>
+  </si>
+  <si>
+    <t>0 hits</t>
+  </si>
+  <si>
+    <t>Misses</t>
+  </si>
+  <si>
+    <t>Hits</t>
   </si>
 </sst>
 </file>
@@ -393,7 +420,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +811,7 @@
   <dimension ref="C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,24 +828,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -829,7 +862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>64</v>
       </c>
@@ -839,6 +872,438 @@
       <c r="D5">
         <f>B5/C5</f>
         <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <f>64+D9</f>
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <f>64+E9</f>
+        <v>192</v>
+      </c>
+      <c r="G9">
+        <f>64+F9</f>
+        <v>256</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>2711684608</f>
+        <v>2711684608</v>
+      </c>
+      <c r="D11">
+        <f>$C$11+(4*(D9))</f>
+        <v>2711684864</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:G11" si="0">$C$11+(4*(E9))</f>
+        <v>2711685120</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2711685376</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2711685632</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f xml:space="preserve"> ROUNDDOWN(C11/(64*4),0)</f>
+        <v>10592518</v>
+      </c>
+      <c r="D12">
+        <f xml:space="preserve"> ROUNDDOWN(D11/(64*4),0)</f>
+        <v>10592519</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:G12" si="1" xml:space="preserve"> ROUNDDOWN(E11/(64*4),0)</f>
+        <v>10592520</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>10592521</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>10592522</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <f>MOD(C12,$D$5)</f>
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:G13" si="2">MOD(D12,$D$5)</f>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <f>64+D17</f>
+        <v>128</v>
+      </c>
+      <c r="F17">
+        <f>64+E17</f>
+        <v>192</v>
+      </c>
+      <c r="G17">
+        <f>64+F17</f>
+        <v>256</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f>2711750144</f>
+        <v>2711750144</v>
+      </c>
+      <c r="D19">
+        <f>$C$19+(4*(D17))</f>
+        <v>2711750400</v>
+      </c>
+      <c r="E19">
+        <f>$C$19+(4*(E17))</f>
+        <v>2711750656</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:G19" si="3">$C$19+(4*(F17))</f>
+        <v>2711750912</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>2711751168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <f xml:space="preserve"> ROUNDDOWN(C19/(64*4),0)</f>
+        <v>10592774</v>
+      </c>
+      <c r="D20">
+        <f xml:space="preserve"> ROUNDDOWN(D19/(64*4),0)</f>
+        <v>10592775</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:G20" si="4" xml:space="preserve"> ROUNDDOWN(E19/(64*4),0)</f>
+        <v>10592776</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>10592777</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>10592778</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f>MOD(C20,$D$5)</f>
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21" si="5">MOD(D20,$D$5)</f>
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21" si="6">MOD(E20,$D$5)</f>
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="7">MOD(F20,$D$5)</f>
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21" si="8">MOD(G20,$D$5)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <f>64+D25</f>
+        <v>128</v>
+      </c>
+      <c r="F25">
+        <f>64+E25</f>
+        <v>192</v>
+      </c>
+      <c r="G25">
+        <f>64+F25</f>
+        <v>256</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <f>3165496832</f>
+        <v>3165496832</v>
+      </c>
+      <c r="D27">
+        <f>$C$27+(4*(D25))</f>
+        <v>3165497088</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:G27" si="9">$C$27+(4*(E25))</f>
+        <v>3165497344</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="9"/>
+        <v>3165497600</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="9"/>
+        <v>3165497856</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <f xml:space="preserve"> ROUNDDOWN(C27/(64*4),0)</f>
+        <v>12365222</v>
+      </c>
+      <c r="D28">
+        <f xml:space="preserve"> ROUNDDOWN(D27/(64*4),0)</f>
+        <v>12365223</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:F28" si="10" xml:space="preserve"> ROUNDDOWN(E27/(64*4),0)</f>
+        <v>12365224</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="10"/>
+        <v>12365225</v>
+      </c>
+      <c r="G28">
+        <f xml:space="preserve"> ROUNDDOWN(G27/(64*4),0)</f>
+        <v>12365226</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <f>MOD(C28,$D$5)</f>
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29" si="11">MOD(D28,$D$5)</f>
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29" si="12">MOD(E28,$D$5)</f>
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="13">MOD(F28,$D$5)</f>
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29" si="14">MOD(G28,$D$5)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -848,12 +1313,483 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f>B5/C5</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <f>64+D9</f>
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <f>64+E9</f>
+        <v>192</v>
+      </c>
+      <c r="G9">
+        <f>64+F9</f>
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>2711684608</f>
+        <v>2711684608</v>
+      </c>
+      <c r="D11">
+        <f>$C$11+(4*(D9))</f>
+        <v>2711684864</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:G11" si="0">$C$11+(4*(E9))</f>
+        <v>2711685120</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2711685376</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2711685632</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f xml:space="preserve"> ROUNDDOWN(C11/(64*4),0)</f>
+        <v>10592518</v>
+      </c>
+      <c r="D12">
+        <f xml:space="preserve"> ROUNDDOWN(D11/(64*4),0)</f>
+        <v>10592519</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:G12" si="1" xml:space="preserve"> ROUNDDOWN(E11/(64*4),0)</f>
+        <v>10592520</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>10592521</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>10592522</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <f>MOD(C12,$D$5)</f>
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:G13" si="2">MOD(D12,$D$5)</f>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <f>64+D17</f>
+        <v>128</v>
+      </c>
+      <c r="F17">
+        <f>64+E17</f>
+        <v>192</v>
+      </c>
+      <c r="G17">
+        <f>64+F17</f>
+        <v>256</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f>2711750144</f>
+        <v>2711750144</v>
+      </c>
+      <c r="D19">
+        <f>$C$19+(4*(D17))</f>
+        <v>2711750400</v>
+      </c>
+      <c r="E19">
+        <f>$C$19+(4*(E17))</f>
+        <v>2711750656</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:G19" si="3">$C$19+(4*(F17))</f>
+        <v>2711750912</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>2711751168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <f xml:space="preserve"> ROUNDDOWN(C19/(64*4),0)</f>
+        <v>10592774</v>
+      </c>
+      <c r="D20">
+        <f xml:space="preserve"> ROUNDDOWN(D19/(64*4),0)</f>
+        <v>10592775</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:G20" si="4" xml:space="preserve"> ROUNDDOWN(E19/(64*4),0)</f>
+        <v>10592776</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>10592777</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>10592778</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f>MOD(C20,$D$5)</f>
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:G21" si="5">MOD(D20,$D$5)</f>
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <f>64+D25</f>
+        <v>128</v>
+      </c>
+      <c r="F25">
+        <f>64+E25</f>
+        <v>192</v>
+      </c>
+      <c r="G25">
+        <f>64+F25</f>
+        <v>256</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <f>3165496832</f>
+        <v>3165496832</v>
+      </c>
+      <c r="D27">
+        <f>$C$27+(4*(D25))</f>
+        <v>3165497088</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:G27" si="6">$C$27+(4*(E25))</f>
+        <v>3165497344</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>3165497600</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>3165497856</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <f xml:space="preserve"> ROUNDDOWN(C27/(64*4),0)</f>
+        <v>12365222</v>
+      </c>
+      <c r="D28">
+        <f xml:space="preserve"> ROUNDDOWN(D27/(64*4),0)</f>
+        <v>12365223</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:F28" si="7" xml:space="preserve"> ROUNDDOWN(E27/(64*4),0)</f>
+        <v>12365224</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>12365225</v>
+      </c>
+      <c r="G28">
+        <f xml:space="preserve"> ROUNDDOWN(G27/(64*4),0)</f>
+        <v>12365226</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <f>MOD(C28,$D$5)</f>
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:G29" si="8">MOD(D28,$D$5)</f>
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Homework_2/Caching.xlsx
+++ b/Homework_2/Caching.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="32">
   <si>
     <t>phys addr</t>
   </si>
@@ -45,9 +45,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>A (index)</t>
-  </si>
-  <si>
     <t>phys addr (byte)</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>cache block (block)</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t xml:space="preserve">Because the cache is fully accosiative (meaning blocks can be placed anywhere) and big enough to fit more than three blocks each Array will only have 4 misses  </t>
   </si>
   <si>
@@ -81,25 +75,49 @@
     <t>cache Set block (block)</t>
   </si>
   <si>
-    <t>B (index)</t>
-  </si>
-  <si>
-    <t>256 misses</t>
-  </si>
-  <si>
-    <t>4 misses</t>
-  </si>
-  <si>
-    <t>252  hits</t>
-  </si>
-  <si>
-    <t>0 hits</t>
-  </si>
-  <si>
     <t>Misses</t>
   </si>
   <si>
     <t>Hits</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Block Index</t>
+  </si>
+  <si>
+    <t>Block Indexes</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>hit/miss majority</t>
+  </si>
+  <si>
+    <t>S1:B0</t>
+  </si>
+  <si>
+    <t>S1:B1</t>
+  </si>
+  <si>
+    <t>S2:B1</t>
+  </si>
+  <si>
+    <t>S2:B0</t>
+  </si>
+  <si>
+    <t>majority hit/miss</t>
   </si>
 </sst>
 </file>
@@ -135,8 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,18 +451,25 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
       <c r="C2">
         <v>0</v>
       </c>
@@ -455,12 +484,14 @@
         <f>64+E2</f>
         <v>192</v>
       </c>
-      <c r="G2">
-        <f>64+F2</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -476,16 +507,16 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <f>2711684608</f>
@@ -503,14 +534,10 @@
         <f>$C$4+(4*(F2))</f>
         <v>2711685376</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4" si="0">$C$4+(4*(G2))</f>
-        <v>2711685632</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <f xml:space="preserve"> ROUNDDOWN(C4/(64*4),0)</f>
@@ -521,21 +548,17 @@
         <v>10592519</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:G5" si="1" xml:space="preserve"> ROUNDDOWN(E4/(64*4),0)</f>
+        <f t="shared" ref="E5:F5" si="0" xml:space="preserve"> ROUNDDOWN(E4/(64*4),0)</f>
         <v>10592520</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10592521</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>10592522</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <f>MOD(C5,64)</f>
@@ -553,15 +576,24 @@
         <f>MOD(F5,64)</f>
         <v>9</v>
       </c>
-      <c r="G6">
-        <f>MOD(G5,64)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
       <c r="C9">
         <v>0</v>
       </c>
@@ -573,15 +605,17 @@
         <v>128</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:G9" si="2">64+E9</f>
+        <f t="shared" ref="F9" si="1">64+E9</f>
         <v>192</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -597,14 +631,14 @@
       <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -621,15 +655,11 @@
         <v>2711750656</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:G11" si="3">$C$11+(4*(F9))</f>
+        <f t="shared" ref="F11" si="2">$C$11+(4*(F9))</f>
         <v>2711750912</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>2711751168</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -646,15 +676,11 @@
         <v>10592776</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:G12" si="4" xml:space="preserve"> ROUNDDOWN(F11/(64*4),0)</f>
+        <f t="shared" ref="F12" si="3" xml:space="preserve"> ROUNDDOWN(F11/(64*4),0)</f>
         <v>10592777</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>10592778</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -671,18 +697,27 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:G13" si="5">MOD(F12,64)</f>
+        <f t="shared" ref="F13" si="4">MOD(F12,64)</f>
         <v>9</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
       <c r="C16">
         <v>0</v>
       </c>
@@ -694,15 +729,17 @@
         <v>128</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:G16" si="6">64+E16</f>
+        <f t="shared" ref="F16" si="5">64+E16</f>
         <v>192</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="6"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -718,14 +755,14 @@
       <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>252</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -734,7 +771,7 @@
         <v>3165496832</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18" si="7">$C$18+(4*(D16))</f>
+        <f t="shared" ref="D18" si="6">$C$18+(4*(D16))</f>
         <v>3165497088</v>
       </c>
       <c r="E18">
@@ -745,12 +782,8 @@
         <f>$C$18+(4*(F16))</f>
         <v>3165497600</v>
       </c>
-      <c r="G18">
-        <f>$C$18+(4*(G16))</f>
-        <v>3165497856</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -763,19 +796,15 @@
         <v>12365223</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:G19" si="8" xml:space="preserve"> ROUNDDOWN(E18/(64*4),0)</f>
+        <f t="shared" ref="E19:F19" si="7" xml:space="preserve"> ROUNDDOWN(E18/(64*4),0)</f>
         <v>12365224</v>
       </c>
       <c r="F19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12365225</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="8"/>
-        <v>12365226</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -792,15 +821,22 @@
         <v>40</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20" si="9">MOD(F19,64)</f>
+        <f t="shared" ref="F20" si="8">MOD(F19,64)</f>
         <v>41</v>
       </c>
-      <c r="G20">
-        <f t="shared" ref="G20" si="10">MOD(G19,64)</f>
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -818,7 +854,7 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -828,10 +864,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K33"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,28 +877,27 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>64</v>
       </c>
@@ -874,10 +909,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
       <c r="C9">
         <v>0</v>
       </c>
@@ -892,40 +949,48 @@
         <f>64+E9</f>
         <v>192</v>
       </c>
-      <c r="G9">
-        <f>64+F9</f>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
         <v>256</v>
       </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <f>2711684608</f>
@@ -936,21 +1001,23 @@
         <v>2711684864</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:G11" si="0">$C$11+(4*(E9))</f>
+        <f t="shared" ref="E11:F11" si="0">$C$11+(4*(E9))</f>
         <v>2711685120</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>2711685376</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>2711685632</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <f xml:space="preserve"> ROUNDDOWN(C11/(64*4),0)</f>
@@ -961,28 +1028,30 @@
         <v>10592519</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:G12" si="1" xml:space="preserve"> ROUNDDOWN(E11/(64*4),0)</f>
+        <f t="shared" ref="E12:F12" si="1" xml:space="preserve"> ROUNDDOWN(E11/(64*4),0)</f>
         <v>10592520</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
         <v>10592521</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>10592522</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <f>MOD(C12,$D$5)</f>
         <v>6</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:G13" si="2">MOD(D12,$D$5)</f>
+        <f t="shared" ref="D13:F13" si="2">MOD(D12,$D$5)</f>
         <v>7</v>
       </c>
       <c r="E13">
@@ -993,14 +1062,16 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1014,14 +1085,44 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H16" s="1"/>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
       <c r="C17">
         <v>0</v>
       </c>
@@ -1036,40 +1137,51 @@
         <f>64+E17</f>
         <v>192</v>
       </c>
-      <c r="G17">
-        <f>64+F17</f>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18">
         <v>256</v>
       </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <f>2711750144</f>
@@ -1084,17 +1196,19 @@
         <v>2711750656</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:G19" si="3">$C$19+(4*(F17))</f>
+        <f t="shared" ref="F19" si="3">$C$19+(4*(F17))</f>
         <v>2711750912</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>2711751168</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <f xml:space="preserve"> ROUNDDOWN(C19/(64*4),0)</f>
@@ -1105,21 +1219,23 @@
         <v>10592775</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:G20" si="4" xml:space="preserve"> ROUNDDOWN(E19/(64*4),0)</f>
+        <f t="shared" ref="E20:F20" si="4" xml:space="preserve"> ROUNDDOWN(E19/(64*4),0)</f>
         <v>10592776</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
         <v>10592777</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>10592778</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <f>MOD(C20,$D$5)</f>
@@ -1137,14 +1253,16 @@
         <f t="shared" ref="F21" si="7">MOD(F20,$D$5)</f>
         <v>9</v>
       </c>
-      <c r="G21">
-        <f t="shared" ref="G21" si="8">MOD(G20,$D$5)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1158,14 +1276,44 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H24" s="1"/>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
       <c r="C25">
         <v>0</v>
       </c>
@@ -1180,40 +1328,51 @@
         <f>64+E25</f>
         <v>192</v>
       </c>
-      <c r="G25">
-        <f>64+F25</f>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
         <v>256</v>
       </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <f>3165496832</f>
@@ -1224,21 +1383,26 @@
         <v>3165497088</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:G27" si="9">$C$27+(4*(E25))</f>
+        <f t="shared" ref="E27:F27" si="8">$C$27+(4*(E25))</f>
         <v>3165497344</v>
       </c>
       <c r="F27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3165497600</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="9"/>
-        <v>3165497856</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <f xml:space="preserve"> ROUNDDOWN(C27/(64*4),0)</f>
@@ -1249,46 +1413,53 @@
         <v>12365223</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:F28" si="10" xml:space="preserve"> ROUNDDOWN(E27/(64*4),0)</f>
+        <f t="shared" ref="E28:F28" si="9" xml:space="preserve"> ROUNDDOWN(E27/(64*4),0)</f>
         <v>12365224</v>
       </c>
       <c r="F28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12365225</v>
       </c>
-      <c r="G28">
-        <f xml:space="preserve"> ROUNDDOWN(G27/(64*4),0)</f>
-        <v>12365226</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <f>MOD(C28,$D$5)</f>
         <v>6</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29" si="11">MOD(D28,$D$5)</f>
+        <f t="shared" ref="D29" si="10">MOD(D28,$D$5)</f>
         <v>7</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29" si="12">MOD(E28,$D$5)</f>
+        <f t="shared" ref="E29" si="11">MOD(E28,$D$5)</f>
         <v>8</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29" si="13">MOD(F28,$D$5)</f>
+        <f t="shared" ref="F29" si="12">MOD(F28,$D$5)</f>
         <v>9</v>
       </c>
-      <c r="G29">
-        <f t="shared" ref="G29" si="14">MOD(G28,$D$5)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1302,42 +1473,75 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>0</v>
+      <c r="K30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C24:F24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B8" sqref="B8:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>64</v>
       </c>
@@ -1349,18 +1553,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
       <c r="C9">
         <v>0</v>
       </c>
@@ -1375,40 +1584,39 @@
         <f>64+E9</f>
         <v>192</v>
       </c>
-      <c r="G9">
-        <f>64+F9</f>
-        <v>256</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <f>2711684608</f>
@@ -1419,21 +1627,17 @@
         <v>2711684864</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:G11" si="0">$C$11+(4*(E9))</f>
+        <f t="shared" ref="E11:F11" si="0">$C$11+(4*(E9))</f>
         <v>2711685120</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>2711685376</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>2711685632</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <f xml:space="preserve"> ROUNDDOWN(C11/(64*4),0)</f>
@@ -1444,28 +1648,24 @@
         <v>10592519</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:G12" si="1" xml:space="preserve"> ROUNDDOWN(E11/(64*4),0)</f>
+        <f t="shared" ref="E12:F12" si="1" xml:space="preserve"> ROUNDDOWN(E11/(64*4),0)</f>
         <v>10592520</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
         <v>10592521</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>10592522</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <f>MOD(C12,$D$5)</f>
         <v>6</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:G13" si="2">MOD(D12,$D$5)</f>
+        <f t="shared" ref="D13:F13" si="2">MOD(D12,$D$5)</f>
         <v>7</v>
       </c>
       <c r="E13">
@@ -1476,14 +1676,10 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1497,14 +1693,24 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
       <c r="C17">
         <v>0</v>
       </c>
@@ -1519,40 +1725,39 @@
         <f>64+E17</f>
         <v>192</v>
       </c>
-      <c r="G17">
-        <f>64+F17</f>
-        <v>256</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17">
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <f>2711750144</f>
@@ -1567,17 +1772,13 @@
         <v>2711750656</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:G19" si="3">$C$19+(4*(F17))</f>
+        <f t="shared" ref="F19" si="3">$C$19+(4*(F17))</f>
         <v>2711750912</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>2711751168</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <f xml:space="preserve"> ROUNDDOWN(C19/(64*4),0)</f>
@@ -1588,28 +1789,24 @@
         <v>10592775</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:G20" si="4" xml:space="preserve"> ROUNDDOWN(E19/(64*4),0)</f>
+        <f t="shared" ref="E20:F20" si="4" xml:space="preserve"> ROUNDDOWN(E19/(64*4),0)</f>
         <v>10592776</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
         <v>10592777</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>10592778</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <f>MOD(C20,$D$5)</f>
         <v>6</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:G21" si="5">MOD(D20,$D$5)</f>
+        <f t="shared" ref="D21:F21" si="5">MOD(D20,$D$5)</f>
         <v>7</v>
       </c>
       <c r="E21">
@@ -1620,14 +1817,10 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1641,14 +1834,24 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
       <c r="C25">
         <v>0</v>
       </c>
@@ -1663,40 +1866,39 @@
         <f>64+E25</f>
         <v>192</v>
       </c>
-      <c r="G25">
-        <f>64+F25</f>
-        <v>256</v>
-      </c>
-      <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25">
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <f>3165496832</f>
@@ -1707,21 +1909,17 @@
         <v>3165497088</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:G27" si="6">$C$27+(4*(E25))</f>
+        <f t="shared" ref="E27:F27" si="6">$C$27+(4*(E25))</f>
         <v>3165497344</v>
       </c>
       <c r="F27">
         <f t="shared" si="6"/>
         <v>3165497600</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="6"/>
-        <v>3165497856</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <f xml:space="preserve"> ROUNDDOWN(C27/(64*4),0)</f>
@@ -1739,21 +1937,17 @@
         <f t="shared" si="7"/>
         <v>12365225</v>
       </c>
-      <c r="G28">
-        <f xml:space="preserve"> ROUNDDOWN(G27/(64*4),0)</f>
-        <v>12365226</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <f>MOD(C28,$D$5)</f>
         <v>6</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:G29" si="8">MOD(D28,$D$5)</f>
+        <f t="shared" ref="D29:F29" si="8">MOD(D28,$D$5)</f>
         <v>7</v>
       </c>
       <c r="E29">
@@ -1764,14 +1958,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1785,11 +1975,19 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>